--- a/doc/服务端开发和测试环境.xlsx
+++ b/doc/服务端开发和测试环境.xlsx
@@ -227,9 +227,6 @@
     <t>[Service]</t>
   </si>
   <si>
-    <t>User=config-server</t>
-  </si>
-  <si>
     <t>ExecStart=/data/server_jar/config-server.jar</t>
   </si>
   <si>
@@ -687,6 +684,10 @@
   </si>
   <si>
     <t>更多配置，请参考官方文档：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User=sctalk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1802,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.25" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1821,57 +1822,57 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -1887,7 +1888,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.15">
@@ -1908,7 +1909,7 @@
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C24" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.15">
@@ -2040,7 +2041,7 @@
         <v>2</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
@@ -2065,37 +2066,37 @@
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D100" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D101" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D102" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D104" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D105" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="108" spans="2:4" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C108" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="2:4" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D109" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.15">
@@ -2110,12 +2111,12 @@
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C114" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="115" spans="3:3" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C115" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/doc/服务端开发和测试环境.xlsx
+++ b/doc/服务端开发和测试环境.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="开发环境推荐" sheetId="1" r:id="rId1"/>
     <sheet name="测试服务器环境说明" sheetId="2" r:id="rId2"/>
+    <sheet name="关于消息加密" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -688,6 +689,41 @@
   </si>
   <si>
     <t>User=sctalk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因消息加密使用AES，并且指定了128位的密钥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用AES加密时，当密钥大于128时，代码会抛出java.security.InvalidKeyException: Illegal key size or default parameters</t>
+  </si>
+  <si>
+    <t>Illegal key size or default parameters是指密钥长度是受限制的，java运行时环境读到的是受限的policy文件。文件位于${java_home}/jre/lib/security</t>
+  </si>
+  <si>
+    <t>这种限制是因为美国对软件出口的控制。</t>
+  </si>
+  <si>
+    <t>解决办法：</t>
+  </si>
+  <si>
+    <t>去掉这种限制需要下载Java Cryptography Extension (JCE) Unlimited Strength Jurisdiction Policy Files.网址如下。</t>
+  </si>
+  <si>
+    <t>下载包的readme.txt 有安装说明。就是替换${java_home}/jre/lib/security/ 下面的local_policy.jar和US_export_policy.jar</t>
+  </si>
+  <si>
+    <t>jdk 5: http://www.oracle.com/technetwork/java/javasebusiness/downloads/java-archive-downloads-java-plat-419418.html#jce_policy-1.5.0-oth-JPR</t>
+  </si>
+  <si>
+    <t>jdk6: http://www.oracle.com/technetwork/java/javase/downloads/jce-6-download-429243.html</t>
+  </si>
+  <si>
+    <t>参考http://stackoverflow.com/questions/6481627/java-security-illegal-key-size-or-default-parameters</t>
+  </si>
+  <si>
+    <t>因此，在服务器端使用JDK时，需要配置jre的policy扩展</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1803,7 +1839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
@@ -2128,4 +2164,76 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/服务端开发和测试环境.xlsx
+++ b/doc/服务端开发和测试环境.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="开发环境推荐" sheetId="1" r:id="rId1"/>
@@ -77,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>启动config-server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>七</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,14 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这里把TT的login-server放到了router-server里，所以运行起来，效果是这样的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其中192.168.20.251将作为消息服务器IP,端口号为4376（自动分配的）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>八</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,36 +189,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/etc/systemd/system/config-server.service</t>
-  </si>
-  <si>
     <t>/etc/systemd/system/talk-db-proxy.service</t>
   </si>
   <si>
     <t>/etc/systemd/system/message-server.service</t>
   </si>
   <si>
-    <t>/etc/systemd/system/router-server.service</t>
-  </si>
-  <si>
-    <t>/etc/systemd/system/file-server.service</t>
-  </si>
-  <si>
     <t>[Unit]</t>
   </si>
   <si>
-    <t>Description=config-server</t>
-  </si>
-  <si>
     <t>After=syslog.target</t>
   </si>
   <si>
     <t>[Service]</t>
   </si>
   <si>
-    <t>ExecStart=/data/server_jar/config-server.jar</t>
-  </si>
-  <si>
     <t>SuccessExitStatus=143</t>
   </si>
   <si>
@@ -240,15 +213,7 @@
     <t>WantedBy=multi-user.target</t>
   </si>
   <si>
-    <t>服务配置，以config-server为例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>启用服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>systemctl enable config-server.service</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -498,188 +463,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">ln </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF666600"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">s </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF666600"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000088"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF666600"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>server_jar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF666600"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">config-server-0.0.1-SNAPSHOT.jar </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF666600"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>etc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF666600"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>init</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF666600"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF666600"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>config-server</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://docs.spring.io/spring-boot/docs/current-SNAPSHOT/reference/html/deployment-install.html#deployment-service</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -717,13 +500,53 @@
     <t>jdk 5: http://www.oracle.com/technetwork/java/javasebusiness/downloads/java-archive-downloads-java-plat-419418.html#jce_policy-1.5.0-oth-JPR</t>
   </si>
   <si>
+    <t>参考http://stackoverflow.com/questions/6481627/java-security-illegal-key-size-or-default-parameters</t>
+  </si>
+  <si>
+    <t>因此，在服务器端使用JDK时，需要配置jre的policy扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>jdk6: http://www.oracle.com/technetwork/java/javase/downloads/jce-6-download-429243.html</t>
-  </si>
-  <si>
-    <t>参考http://stackoverflow.com/questions/6481627/java-security-illegal-key-size-or-default-parameters</t>
-  </si>
-  <si>
-    <t>因此，在服务器端使用JDK时，需要配置jre的policy扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdk8: http://www.oracle.com/technetwork/java/javase/downloads/jce8-download-2133166.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/etc/systemd/system/eureka-server.service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ln -s /data/server_jar/eureka-server-0.0.1-SNAPSHOT.jar /etc/init.d/eureka-server</t>
+  </si>
+  <si>
+    <t>服务配置，以eureka-server为例</t>
+  </si>
+  <si>
+    <t>Description=eureka-server</t>
+  </si>
+  <si>
+    <t>ExecStart=/data/server_jar/eureka-server.jar</t>
+  </si>
+  <si>
+    <t>systemctl enable eureka-server.service</t>
+  </si>
+  <si>
+    <t>启动eureka-server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个版本，这里把TT的login-server放到了message-server里，所以运行起来，效果是这样的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果有多个节点，可以通过配置zuul服务，或nginx来提供一定的负载均衡或冗余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中192.168.10.74将作为消息服务器IP,端口号为8091（手动指定，如果想自动分配，可以在启动时配置为0）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,7 +554,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -773,14 +596,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF666600"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -844,7 +659,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -862,7 +677,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -923,44 +738,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>66325</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>104098</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6248400" y="1543050"/>
-          <a:ext cx="2800000" cy="5419048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>43</xdr:row>
@@ -980,7 +757,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -999,167 +776,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>218413</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>66388</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="390525" y="16287750"/>
-          <a:ext cx="5295238" cy="2295238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>217388</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>123381</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="390525" y="18688050"/>
-          <a:ext cx="13495238" cy="3552381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>389500</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>8774</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="781050" y="16116300"/>
-          <a:ext cx="8200000" cy="6009524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>199363</xdr:colOff>
-      <xdr:row>193</xdr:row>
-      <xdr:rowOff>28084</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="762000" y="29194125"/>
-          <a:ext cx="5295238" cy="3923809"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>150984</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>142414</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1170,7 +795,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1191,13 +816,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>74892</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>210</xdr:row>
       <xdr:rowOff>114186</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1208,7 +833,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1229,13 +854,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>230</xdr:row>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>85373</xdr:colOff>
-      <xdr:row>261</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>75526</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1246,7 +871,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1267,13 +892,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>313993</xdr:colOff>
-      <xdr:row>249</xdr:row>
+      <xdr:row>232</xdr:row>
       <xdr:rowOff>123430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1284,7 +909,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1293,6 +918,158 @@
         <a:xfrm>
           <a:off x="4295775" y="39652575"/>
           <a:ext cx="2657143" cy="3161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>170403</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>170614</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="16116300"/>
+          <a:ext cx="8371428" cy="6685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>217944</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>152099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542925" y="23460075"/>
+          <a:ext cx="9047619" cy="2409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266059</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>94832</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="26755725"/>
+          <a:ext cx="5123809" cy="3342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>228181</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>18640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6638925" y="1543050"/>
+          <a:ext cx="3352381" cy="3276190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1710,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C267"/>
+  <dimension ref="A1:C250"/>
   <sheetViews>
-    <sheetView topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="T234" sqref="T234"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1783,48 +1560,53 @@
         <v>14</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>15</v>
+      </c>
+      <c r="B136" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B154" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B155" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C178" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A181" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A130" t="s">
-        <v>16</v>
-      </c>
-      <c r="B130" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B169" t="s">
+      <c r="B181" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C195" t="s">
+    <row r="249" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B249" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A198" t="s">
+    <row r="250" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C250" t="s">
         <v>21</v>
-      </c>
-      <c r="B198" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="266" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B266" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="267" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C267" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1840,7 +1622,7 @@
   <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+      <selection activeCell="R96" sqref="R96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.25" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1850,73 +1632,73 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C12" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
@@ -1924,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.15">
@@ -1932,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.15">
@@ -1940,37 +1722,37 @@
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C24" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C25" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C26" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C27" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C28" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C30" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.15">
@@ -2005,12 +1787,12 @@
         <v>4</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D42" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.15">
@@ -2018,25 +1800,25 @@
         <v>5</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D64" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D66" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
@@ -2044,32 +1826,22 @@
         <v>1</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D88" s="1" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D89" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D90" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D91" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D92" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
@@ -2077,82 +1849,82 @@
         <v>2</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D95" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D96" s="1" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D97" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D99" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D100" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D101" s="1" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D102" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D104" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D105" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="2:4" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C108" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="109" spans="2:4" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D109" s="6" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B112" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C113" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C114" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115" spans="3:3" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C115" s="7" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2168,67 +1940,72 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B19"/>
+  <dimension ref="B1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>87</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
